--- a/src/main/resources/data/Data.xlsx
+++ b/src/main/resources/data/Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\custom24\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\custom24\eclipse-workspace\Hasaki.vn\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434B30F6-0318-491C-9F97-1E0FD4A3E58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC245FA9-D58F-4B20-B267-A10E1D3244BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -246,16 +246,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7.9"/>
+      <b/>
+      <sz val="9"/>
       <color rgb="FFB45050"/>
       <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
     <font>
-      <sz val="7.9"/>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF486830"/>
       <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -289,10 +289,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,19 +592,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:E11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -744,25 +744,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9764BC3-4F1E-4B61-8DCE-94FD61F9464C}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -873,22 +873,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
       <c r="G1" s="6" t="s">
@@ -896,7 +896,7 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B2" t="s">
@@ -919,7 +919,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B3" t="s">
@@ -942,7 +942,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
